--- a/Analysis/expertiments/medium_game_mode/arrival_boss-20_minion-10/throughput/experiments_medium_game_mode_throughput.xlsx
+++ b/Analysis/expertiments/medium_game_mode/arrival_boss-20_minion-10/throughput/experiments_medium_game_mode_throughput.xlsx
@@ -52,42 +52,10 @@
     <t xml:space="preserve">Mean (bosses throughput)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Average of means minions </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">throughput</t>
-    </r>
+    <t xml:space="preserve">Average of means minions throughput</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Average of means boss  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">throughput</t>
-    </r>
+    <t xml:space="preserve">Average of means boss  throughput</t>
   </si>
   <si>
     <t xml:space="preserve">minion std deviation</t>
@@ -114,42 +82,10 @@
     <t xml:space="preserve">minion_waiting_time_stat:vector</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">minion mean </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">throughput</t>
-    </r>
+    <t xml:space="preserve">minion mean throughput</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">boss mean </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">throughput</t>
-    </r>
+    <t xml:space="preserve">boss mean throughput</t>
   </si>
   <si>
     <t xml:space="preserve">minions CI</t>
@@ -186,12 +122,12 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -400,7 +336,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -440,10 +376,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0851682368775235"/>
-          <c:y val="0.146439509954058"/>
-          <c:w val="0.881830417227456"/>
-          <c:h val="0.640888208269525"/>
+          <c:x val="0.08516554818138"/>
+          <c:y val="0.146458979605307"/>
+          <c:w val="0.881761892402951"/>
+          <c:h val="0.640815787736783"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -495,6 +431,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -503,6 +440,67 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$Y$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00195930905189911</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00193770577434376</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00201575506442166</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00215070966887988</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00216304176133406</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$Y$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00195930905189911</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00193770577434376</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00201575506442166</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00215070966887988</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00216304176133406</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$3:$U$7</c:f>
@@ -599,6 +597,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -607,6 +606,67 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$Y$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00195563376332179</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00200336266790859</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00212386923083838</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00223210101700221</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00227585132921667</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$Y$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00195563376332179</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00200336266790859</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00212386923083838</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00223210101700221</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00227585132921667</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ff420e"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$3:$U$7</c:f>
@@ -703,6 +763,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -711,6 +772,67 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$42:$Y$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00194483262673696</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0020745487781339</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00217598585439236</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00230695012229748</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00236635586196658</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$42:$Y$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00194483262673696</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0020745487781339</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00217598585439236</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00230695012229748</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00236635586196658</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ffff00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$3:$U$7</c:f>
@@ -807,6 +929,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -815,6 +938,67 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$52:$Y$56</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00200121626294627</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00214509071548153</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00227665828434165</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0023429733530773</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00231180908132391</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$52:$Y$56</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00200121626294627</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00214509071548153</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00227665828434165</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0023429733530773</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00231180908132391</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="579d1c"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$3:$U$7</c:f>
@@ -911,6 +1095,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -919,6 +1104,52 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$62:$Y$66</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00207064587776637</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00225464379614184</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00234212389147523</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00243888176720989</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00234564036970975</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f/>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="0"/>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7e0021"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$3:$U$7</c:f>
@@ -1015,6 +1246,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1023,6 +1255,67 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$67:$Y$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00215510686852938</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00232608716572229</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00241171860969495</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00264002033941766</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00273621037719374</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$67:$Y$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00215510686852938</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00232608716572229</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00241171860969495</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00264002033941766</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00273621037719374</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="83caff"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$3:$U$7</c:f>
@@ -1073,11 +1366,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96194289"/>
-        <c:axId val="57469664"/>
+        <c:axId val="82961286"/>
+        <c:axId val="33711169"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96194289"/>
+        <c:axId val="82961286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1404,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1133,12 +1426,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57469664"/>
+        <c:crossAx val="33711169"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57469664"/>
+        <c:axId val="33711169"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1474,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1203,7 +1496,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96194289"/>
+        <c:crossAx val="82961286"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1244,14 +1537,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1291,10 +1584,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0851585121389858"/>
-          <c:y val="0.146373655381773"/>
-          <c:w val="0.881802657955305"/>
-          <c:h val="0.64086319540685"/>
+          <c:x val="0.0851284713210485"/>
+          <c:y val="0.14639297736123"/>
+          <c:w val="0.88172481554262"/>
+          <c:h val="0.640815787736783"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1346,6 +1639,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1354,6 +1648,67 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$Y$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00195930905189911</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00193770577434376</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00201575506442166</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00215070966887988</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00216304176133406</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$Y$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00195930905189911</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00193770577434376</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00201575506442166</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00215070966887988</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00216304176133406</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$3:$U$7</c:f>
@@ -1450,6 +1805,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1458,6 +1814,67 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$Y$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00195563376332179</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00200336266790859</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00212386923083838</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00223210101700221</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00227585132921667</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$Y$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00195563376332179</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00200336266790859</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00212386923083838</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00223210101700221</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00227585132921667</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ff420e"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$3:$U$7</c:f>
@@ -1554,6 +1971,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1562,6 +1980,67 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$42:$Y$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00194483262673696</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0020745487781339</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00217598585439236</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00230695012229748</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00236635586196658</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$42:$Y$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00194483262673696</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0020745487781339</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00217598585439236</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00230695012229748</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00236635586196658</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ffff00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$3:$U$7</c:f>
@@ -1658,6 +2137,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1666,6 +2146,67 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$52:$Y$56</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00200121626294627</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00214509071548153</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00227665828434165</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0023429733530773</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00231180908132391</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$52:$Y$56</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00200121626294627</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00214509071548153</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00227665828434165</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0023429733530773</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00231180908132391</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="579d1c"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$3:$U$7</c:f>
@@ -1762,6 +2303,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1770,6 +2312,67 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$62:$Y$66</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00207064587776637</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00225464379614184</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00234212389147523</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00243888176720989</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00234564036970975</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$62:$Y$66</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00207064587776637</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00225464379614184</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00234212389147523</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00243888176720989</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00234564036970975</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7e0021"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$3:$U$7</c:f>
@@ -1866,6 +2469,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1874,6 +2478,67 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$72:$Y$76</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00218267997280254</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0024400015742883</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00247843911406886</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00259378866554974</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00255515092104585</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$72:$Y$76</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00218267997280254</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0024400015742883</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00247843911406886</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00259378866554974</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00255515092104585</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="83caff"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$3:$U$7</c:f>
@@ -1924,11 +2589,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="83357299"/>
-        <c:axId val="28802016"/>
+        <c:axId val="16770503"/>
+        <c:axId val="51937792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83357299"/>
+        <c:axId val="16770503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1962,7 +2627,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1984,12 +2649,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28802016"/>
+        <c:crossAx val="51937792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="28802016"/>
+        <c:axId val="51937792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.105"/>
@@ -2034,7 +2699,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2056,7 +2721,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83357299"/>
+        <c:crossAx val="16770503"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2097,14 +2762,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2188,6 +2853,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2319,11 +2985,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="15614167"/>
-        <c:axId val="22941215"/>
+        <c:axId val="56189691"/>
+        <c:axId val="62982868"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15614167"/>
+        <c:axId val="56189691"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,7 +3023,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2379,16 +3045,16 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22941215"/>
+        <c:crossAx val="62982868"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="22941215"/>
+        <c:axId val="62982868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.051"/>
-          <c:min val="0.045"/>
+          <c:max val="0.06"/>
+          <c:min val="0.04"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2429,7 +3095,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2451,7 +3117,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15614167"/>
+        <c:crossAx val="56189691"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2492,7 +3158,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -2503,16 +3169,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>1149480</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>156600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>518760</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2520,8 +3186,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="44526960" y="11118960"/>
-        <a:ext cx="9697320" cy="5454720"/>
+        <a:off x="55980720" y="11244600"/>
+        <a:ext cx="16034400" cy="9007200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2533,16 +3199,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>1094040</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>129240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>12240</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>419040</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2550,8 +3216,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="44471520" y="4903200"/>
-        <a:ext cx="9697320" cy="5454720"/>
+        <a:off x="55953360" y="1596960"/>
+        <a:ext cx="15962040" cy="8966520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2563,16 +3229,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>547560</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>664560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>567720</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>398160</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2580,8 +3246,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="56348640" y="2476080"/>
-        <a:ext cx="11532600" cy="6486840"/>
+        <a:off x="44047080" y="5492520"/>
+        <a:ext cx="10525320" cy="5901840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2602,10 +3268,10 @@
   <dimension ref="B1:AD2162"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AS57" activeCellId="0" sqref="AS57"/>
+      <selection pane="topLeft" activeCell="BJ83" activeCellId="0" sqref="BJ83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.19"/>
